--- a/data/获取数据/政策导向指标/非国企20年数据/688612.xlsx
+++ b/data/获取数据/政策导向指标/非国企20年数据/688612.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="214" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="94">
   <si>
     <t>股票名称</t>
   </si>
@@ -55,12 +55,36 @@
     <t>换手率</t>
   </si>
   <si>
+    <t>证券代码</t>
+  </si>
+  <si>
+    <t>证券简称</t>
+  </si>
+  <si>
+    <t>变动日期</t>
+  </si>
+  <si>
+    <t>实际控制人名称</t>
+  </si>
+  <si>
+    <t>控股数量(万股)</t>
+  </si>
+  <si>
+    <t>控股比例(%)</t>
+  </si>
+  <si>
+    <t>直接控制人名称</t>
+  </si>
+  <si>
+    <t>控制方式</t>
+  </si>
+  <si>
+    <t>政府支持度</t>
+  </si>
+  <si>
     <t>威迈斯</t>
   </si>
   <si>
-    <t>688612</t>
-  </si>
-  <si>
     <t>2023-07-26</t>
   </si>
   <si>
@@ -260,6 +284,18 @@
   </si>
   <si>
     <t>2023-11-03</t>
+  </si>
+  <si>
+    <t>2023-07-25</t>
+  </si>
+  <si>
+    <t>万仁春</t>
+  </si>
+  <si>
+    <t>万仁春;深圳森特尔企业管理合伙企业(有限合伙);深圳特浦斯企业管理合伙企业(有限合伙);深圳倍特尔企业管理合伙企业(有限合伙)</t>
+  </si>
+  <si>
+    <t>单独控制</t>
   </si>
 </sst>
 </file>
@@ -617,13 +653,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M68"/>
+  <dimension ref="A1:V69"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -663,16 +699,43 @@
       <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B2" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B2">
+        <v>688612</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="D2">
         <v>60</v>
@@ -705,2709 +768,2738 @@
         <v>79.90000000000001</v>
       </c>
     </row>
-    <row r="3" spans="1:13">
-      <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D3">
+    <row r="3" spans="1:22">
+      <c r="N3">
+        <v>688612</v>
+      </c>
+      <c r="O3" t="s">
+        <v>22</v>
+      </c>
+      <c r="P3" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>91</v>
+      </c>
+      <c r="R3">
+        <v>16205</v>
+      </c>
+      <c r="S3">
+        <v>38.49</v>
+      </c>
+      <c r="T3" t="s">
+        <v>92</v>
+      </c>
+      <c r="U3" t="s">
+        <v>93</v>
+      </c>
+      <c r="V3">
+        <v>34.14557987727613</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>688612</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4">
         <v>56.2</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>53.65</v>
       </c>
-      <c r="F3">
+      <c r="F4">
         <v>58.33</v>
       </c>
-      <c r="G3">
+      <c r="G4">
         <v>53.28</v>
       </c>
-      <c r="H3">
+      <c r="H4">
         <v>225960</v>
       </c>
-      <c r="I3">
+      <c r="I4">
         <v>1264627185</v>
       </c>
-      <c r="J3">
+      <c r="J4">
         <v>10.18</v>
       </c>
-      <c r="K3">
+      <c r="K4">
         <v>8.1</v>
       </c>
-      <c r="L3">
+      <c r="L4">
         <v>4.02</v>
       </c>
-      <c r="M3">
+      <c r="M4">
         <v>72.15000000000001</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>13</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>17</v>
-      </c>
-      <c r="D4">
+    <row r="5" spans="1:22">
+      <c r="A5" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5">
+        <v>688612</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5">
         <v>50.4</v>
       </c>
-      <c r="E4">
+      <c r="E5">
         <v>52</v>
       </c>
-      <c r="F4">
+      <c r="F5">
         <v>55.47</v>
       </c>
-      <c r="G4">
+      <c r="G5">
         <v>48.25</v>
       </c>
-      <c r="H4">
+      <c r="H5">
         <v>154939</v>
       </c>
-      <c r="I4">
+      <c r="I5">
         <v>794242146</v>
       </c>
-      <c r="J4">
+      <c r="J5">
         <v>13.46</v>
       </c>
-      <c r="K4">
+      <c r="K5">
         <v>-3.08</v>
       </c>
-      <c r="L4">
+      <c r="L5">
         <v>-1.65</v>
       </c>
-      <c r="M4">
+      <c r="M5">
         <v>49.47</v>
       </c>
     </row>
-    <row r="5" spans="1:13">
-      <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
-      </c>
-      <c r="D5">
+    <row r="6" spans="1:22">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="B6">
+        <v>688612</v>
+      </c>
+      <c r="C6" t="s">
+        <v>26</v>
+      </c>
+      <c r="D6">
         <v>53</v>
       </c>
-      <c r="E5">
+      <c r="E6">
         <v>49.57</v>
       </c>
-      <c r="F5">
+      <c r="F6">
         <v>54.3</v>
       </c>
-      <c r="G5">
+      <c r="G6">
         <v>49.51</v>
       </c>
-      <c r="H5">
+      <c r="H6">
         <v>125083</v>
       </c>
-      <c r="I5">
+      <c r="I6">
         <v>648135843</v>
       </c>
-      <c r="J5">
+      <c r="J6">
         <v>9.210000000000001</v>
       </c>
-      <c r="K5">
+      <c r="K6">
         <v>-4.67</v>
       </c>
-      <c r="L5">
+      <c r="L6">
         <v>-2.43</v>
       </c>
-      <c r="M5">
+      <c r="M6">
         <v>39.94</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
-      </c>
-      <c r="D6">
+    <row r="7" spans="1:22">
+      <c r="A7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B7">
+        <v>688612</v>
+      </c>
+      <c r="C7" t="s">
+        <v>27</v>
+      </c>
+      <c r="D7">
         <v>48.03</v>
       </c>
-      <c r="E6">
+      <c r="E7">
         <v>49.44</v>
       </c>
-      <c r="F6">
+      <c r="F7">
         <v>50.75</v>
       </c>
-      <c r="G6">
+      <c r="G7">
         <v>48.03</v>
       </c>
-      <c r="H6">
+      <c r="H7">
         <v>95830</v>
       </c>
-      <c r="I6">
+      <c r="I7">
         <v>471227869</v>
       </c>
-      <c r="J6">
+      <c r="J7">
         <v>5.49</v>
       </c>
-      <c r="K6">
+      <c r="K7">
         <v>-0.26</v>
       </c>
-      <c r="L6">
+      <c r="L7">
         <v>-0.13</v>
       </c>
-      <c r="M6">
+      <c r="M7">
         <v>30.6</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
-      <c r="A7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B7" t="s">
-        <v>14</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
-      </c>
-      <c r="D7">
+    <row r="8" spans="1:22">
+      <c r="A8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B8">
+        <v>688612</v>
+      </c>
+      <c r="C8" t="s">
+        <v>28</v>
+      </c>
+      <c r="D8">
         <v>49.6</v>
       </c>
-      <c r="E7">
+      <c r="E8">
         <v>47.59</v>
       </c>
-      <c r="F7">
+      <c r="F8">
         <v>49.6</v>
       </c>
-      <c r="G7">
+      <c r="G8">
         <v>46.46</v>
       </c>
-      <c r="H7">
+      <c r="H8">
         <v>73999</v>
       </c>
-      <c r="I7">
+      <c r="I8">
         <v>352217500</v>
       </c>
-      <c r="J7">
+      <c r="J8">
         <v>6.35</v>
       </c>
-      <c r="K7">
+      <c r="K8">
         <v>-3.74</v>
       </c>
-      <c r="L7">
+      <c r="L8">
         <v>-1.85</v>
       </c>
-      <c r="M7">
+      <c r="M8">
         <v>23.63</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>13</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>21</v>
-      </c>
-      <c r="D8">
+    <row r="9" spans="1:22">
+      <c r="A9" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9">
+        <v>688612</v>
+      </c>
+      <c r="C9" t="s">
+        <v>29</v>
+      </c>
+      <c r="D9">
         <v>46.51</v>
       </c>
-      <c r="E8">
+      <c r="E9">
         <v>45.22</v>
       </c>
-      <c r="F8">
+      <c r="F9">
         <v>47.3</v>
       </c>
-      <c r="G8">
+      <c r="G9">
         <v>45.19</v>
       </c>
-      <c r="H8">
+      <c r="H9">
         <v>68926</v>
       </c>
-      <c r="I8">
+      <c r="I9">
         <v>317389545</v>
       </c>
-      <c r="J8">
+      <c r="J9">
         <v>4.43</v>
       </c>
-      <c r="K8">
+      <c r="K9">
         <v>-4.98</v>
       </c>
-      <c r="L8">
+      <c r="L9">
         <v>-2.37</v>
       </c>
-      <c r="M8">
+      <c r="M9">
         <v>22.01</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
-      </c>
-      <c r="D9">
+    <row r="10" spans="1:22">
+      <c r="A10" t="s">
+        <v>22</v>
+      </c>
+      <c r="B10">
+        <v>688612</v>
+      </c>
+      <c r="C10" t="s">
+        <v>30</v>
+      </c>
+      <c r="D10">
         <v>44.9</v>
       </c>
-      <c r="E9">
+      <c r="E10">
         <v>48.6</v>
       </c>
-      <c r="F9">
+      <c r="F10">
         <v>48.6</v>
       </c>
-      <c r="G9">
+      <c r="G10">
         <v>44.9</v>
       </c>
-      <c r="H9">
+      <c r="H10">
         <v>91791</v>
       </c>
-      <c r="I9">
+      <c r="I10">
         <v>431262801</v>
       </c>
-      <c r="J9">
+      <c r="J10">
         <v>8.18</v>
       </c>
-      <c r="K9">
+      <c r="K10">
         <v>7.47</v>
       </c>
-      <c r="L9">
+      <c r="L10">
         <v>3.38</v>
       </c>
-      <c r="M9">
+      <c r="M10">
         <v>29.31</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
-      <c r="A10" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C10" t="s">
-        <v>23</v>
-      </c>
-      <c r="D10">
+    <row r="11" spans="1:22">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11">
+        <v>688612</v>
+      </c>
+      <c r="C11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D11">
         <v>47.51</v>
       </c>
-      <c r="E10">
+      <c r="E11">
         <v>48.3</v>
       </c>
-      <c r="F10">
+      <c r="F11">
         <v>50.45</v>
       </c>
-      <c r="G10">
+      <c r="G11">
         <v>47.5</v>
       </c>
-      <c r="H10">
+      <c r="H11">
         <v>63165</v>
       </c>
-      <c r="I10">
+      <c r="I11">
         <v>308701234</v>
       </c>
-      <c r="J10">
+      <c r="J11">
         <v>6.07</v>
       </c>
-      <c r="K10">
+      <c r="K11">
         <v>-0.62</v>
       </c>
-      <c r="L10">
+      <c r="L11">
         <v>-0.3</v>
       </c>
-      <c r="M10">
+      <c r="M11">
         <v>20.17</v>
       </c>
     </row>
-    <row r="11" spans="1:13">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C11" t="s">
-        <v>24</v>
-      </c>
-      <c r="D11">
+    <row r="12" spans="1:22">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12">
+        <v>688612</v>
+      </c>
+      <c r="C12" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12">
         <v>47.92</v>
       </c>
-      <c r="E11">
+      <c r="E12">
         <v>48.75</v>
       </c>
-      <c r="F11">
+      <c r="F12">
         <v>50.22</v>
       </c>
-      <c r="G11">
+      <c r="G12">
         <v>47.92</v>
       </c>
-      <c r="H11">
+      <c r="H12">
         <v>48834</v>
       </c>
-      <c r="I11">
+      <c r="I12">
         <v>241444810</v>
       </c>
-      <c r="J11">
+      <c r="J12">
         <v>4.76</v>
       </c>
-      <c r="K11">
+      <c r="K12">
         <v>0.93</v>
       </c>
-      <c r="L11">
+      <c r="L12">
         <v>0.45</v>
       </c>
-      <c r="M11">
+      <c r="M12">
         <v>15.59</v>
       </c>
     </row>
-    <row r="12" spans="1:13">
-      <c r="A12" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" t="s">
-        <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12">
+    <row r="13" spans="1:22">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>688612</v>
+      </c>
+      <c r="C13" t="s">
+        <v>33</v>
+      </c>
+      <c r="D13">
         <v>48.46</v>
       </c>
-      <c r="E12">
+      <c r="E13">
         <v>48</v>
       </c>
-      <c r="F12">
+      <c r="F13">
         <v>49.39</v>
       </c>
-      <c r="G12">
+      <c r="G13">
         <v>46.7</v>
       </c>
-      <c r="H12">
+      <c r="H13">
         <v>34389</v>
       </c>
-      <c r="I12">
+      <c r="I13">
         <v>164070388</v>
       </c>
-      <c r="J12">
+      <c r="J13">
         <v>5.52</v>
       </c>
-      <c r="K12">
+      <c r="K13">
         <v>-1.54</v>
       </c>
-      <c r="L12">
+      <c r="L13">
         <v>-0.75</v>
       </c>
-      <c r="M12">
+      <c r="M13">
         <v>10.98</v>
       </c>
     </row>
-    <row r="13" spans="1:13">
-      <c r="A13" t="s">
-        <v>13</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-      <c r="D13">
+    <row r="14" spans="1:22">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14">
+        <v>688612</v>
+      </c>
+      <c r="C14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14">
         <v>47.65</v>
       </c>
-      <c r="E13">
+      <c r="E14">
         <v>49.03</v>
       </c>
-      <c r="F13">
+      <c r="F14">
         <v>49.43</v>
       </c>
-      <c r="G13">
+      <c r="G14">
         <v>47.55</v>
       </c>
-      <c r="H13">
+      <c r="H14">
         <v>37305</v>
       </c>
-      <c r="I13">
+      <c r="I14">
         <v>181327100</v>
       </c>
-      <c r="J13">
+      <c r="J14">
         <v>3.92</v>
       </c>
-      <c r="K13">
+      <c r="K14">
         <v>2.15</v>
       </c>
-      <c r="L13">
+      <c r="L14">
         <v>1.03</v>
       </c>
-      <c r="M13">
+      <c r="M14">
         <v>11.91</v>
       </c>
     </row>
-    <row r="14" spans="1:13">
-      <c r="A14" t="s">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>27</v>
-      </c>
-      <c r="D14">
+    <row r="15" spans="1:22">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15">
+        <v>688612</v>
+      </c>
+      <c r="C15" t="s">
+        <v>35</v>
+      </c>
+      <c r="D15">
         <v>48.5</v>
       </c>
-      <c r="E14">
+      <c r="E15">
         <v>49.23</v>
       </c>
-      <c r="F14">
+      <c r="F15">
         <v>50.18</v>
       </c>
-      <c r="G14">
+      <c r="G15">
         <v>48.38</v>
       </c>
-      <c r="H14">
+      <c r="H15">
         <v>33650</v>
       </c>
-      <c r="I14">
+      <c r="I15">
         <v>165714600</v>
       </c>
-      <c r="J14">
+      <c r="J15">
         <v>3.67</v>
       </c>
-      <c r="K14">
+      <c r="K15">
         <v>0.41</v>
       </c>
-      <c r="L14">
+      <c r="L15">
         <v>0.2</v>
       </c>
-      <c r="M14">
+      <c r="M15">
         <v>10.74</v>
       </c>
     </row>
-    <row r="15" spans="1:13">
-      <c r="A15" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
-      </c>
-      <c r="C15" t="s">
-        <v>28</v>
-      </c>
-      <c r="D15">
+    <row r="16" spans="1:22">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>688612</v>
+      </c>
+      <c r="C16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16">
         <v>48.3</v>
       </c>
-      <c r="E15">
+      <c r="E16">
         <v>50.15</v>
       </c>
-      <c r="F15">
+      <c r="F16">
         <v>50.6</v>
       </c>
-      <c r="G15">
+      <c r="G16">
         <v>47.66</v>
       </c>
-      <c r="H15">
+      <c r="H16">
         <v>39436</v>
       </c>
-      <c r="I15">
+      <c r="I16">
         <v>195053587</v>
       </c>
-      <c r="J15">
+      <c r="J16">
         <v>5.97</v>
       </c>
-      <c r="K15">
+      <c r="K16">
         <v>1.87</v>
       </c>
-      <c r="L15">
+      <c r="L16">
         <v>0.92</v>
       </c>
-      <c r="M15">
+      <c r="M16">
         <v>12.59</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
-      <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
-      </c>
-      <c r="C16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D16">
-        <v>49.82</v>
-      </c>
-      <c r="E16">
-        <v>49.82</v>
-      </c>
-      <c r="F16">
-        <v>50.4</v>
-      </c>
-      <c r="G16">
-        <v>48.51</v>
-      </c>
-      <c r="H16">
-        <v>23845</v>
-      </c>
-      <c r="I16">
-        <v>117327998</v>
-      </c>
-      <c r="J16">
-        <v>3.77</v>
-      </c>
-      <c r="K16">
-        <v>-0.66</v>
-      </c>
-      <c r="L16">
-        <v>-0.33</v>
-      </c>
-      <c r="M16">
-        <v>7.61</v>
       </c>
     </row>
     <row r="17" spans="1:13">
       <c r="A17" t="s">
-        <v>13</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B17">
+        <v>688612</v>
       </c>
       <c r="C17" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="D17">
         <v>49.82</v>
       </c>
       <c r="E17">
-        <v>47.35</v>
+        <v>49.82</v>
       </c>
       <c r="F17">
-        <v>50.23</v>
+        <v>50.4</v>
       </c>
       <c r="G17">
-        <v>47.32</v>
+        <v>48.51</v>
       </c>
       <c r="H17">
-        <v>24944</v>
+        <v>23845</v>
       </c>
       <c r="I17">
-        <v>121110901</v>
+        <v>117327998</v>
       </c>
       <c r="J17">
-        <v>5.84</v>
+        <v>3.77</v>
       </c>
       <c r="K17">
-        <v>-4.96</v>
+        <v>-0.66</v>
       </c>
       <c r="L17">
-        <v>-2.47</v>
+        <v>-0.33</v>
       </c>
       <c r="M17">
-        <v>7.96</v>
+        <v>7.61</v>
       </c>
     </row>
     <row r="18" spans="1:13">
       <c r="A18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B18" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B18">
+        <v>688612</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="D18">
-        <v>47.01</v>
+        <v>49.82</v>
       </c>
       <c r="E18">
-        <v>48.6</v>
+        <v>47.35</v>
       </c>
       <c r="F18">
-        <v>49.15</v>
+        <v>50.23</v>
       </c>
       <c r="G18">
-        <v>47.01</v>
+        <v>47.32</v>
       </c>
       <c r="H18">
-        <v>25407</v>
+        <v>24944</v>
       </c>
       <c r="I18">
-        <v>123055050</v>
+        <v>121110901</v>
       </c>
       <c r="J18">
-        <v>4.52</v>
+        <v>5.84</v>
       </c>
       <c r="K18">
-        <v>2.64</v>
+        <v>-4.96</v>
       </c>
       <c r="L18">
-        <v>1.25</v>
+        <v>-2.47</v>
       </c>
       <c r="M18">
-        <v>8.109999999999999</v>
+        <v>7.96</v>
       </c>
     </row>
     <row r="19" spans="1:13">
       <c r="A19" t="s">
-        <v>13</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B19">
+        <v>688612</v>
       </c>
       <c r="C19" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="D19">
-        <v>50.68</v>
+        <v>47.01</v>
       </c>
       <c r="E19">
-        <v>49.58</v>
+        <v>48.6</v>
       </c>
       <c r="F19">
-        <v>52.53</v>
+        <v>49.15</v>
       </c>
       <c r="G19">
-        <v>49.58</v>
+        <v>47.01</v>
       </c>
       <c r="H19">
-        <v>48986</v>
+        <v>25407</v>
       </c>
       <c r="I19">
-        <v>249367215</v>
+        <v>123055050</v>
       </c>
       <c r="J19">
-        <v>6.07</v>
+        <v>4.52</v>
       </c>
       <c r="K19">
-        <v>2.02</v>
+        <v>2.64</v>
       </c>
       <c r="L19">
-        <v>0.98</v>
+        <v>1.25</v>
       </c>
       <c r="M19">
-        <v>15.64</v>
+        <v>8.109999999999999</v>
       </c>
     </row>
     <row r="20" spans="1:13">
       <c r="A20" t="s">
-        <v>13</v>
-      </c>
-      <c r="B20" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B20">
+        <v>688612</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="D20">
-        <v>49.42</v>
+        <v>50.68</v>
       </c>
       <c r="E20">
-        <v>48.4</v>
+        <v>49.58</v>
       </c>
       <c r="F20">
-        <v>50</v>
+        <v>52.53</v>
       </c>
       <c r="G20">
-        <v>47</v>
+        <v>49.58</v>
       </c>
       <c r="H20">
-        <v>28334</v>
+        <v>48986</v>
       </c>
       <c r="I20">
-        <v>137289870</v>
+        <v>249367215</v>
       </c>
       <c r="J20">
-        <v>6.05</v>
+        <v>6.07</v>
       </c>
       <c r="K20">
-        <v>-2.38</v>
+        <v>2.02</v>
       </c>
       <c r="L20">
-        <v>-1.18</v>
+        <v>0.98</v>
       </c>
       <c r="M20">
-        <v>9.050000000000001</v>
+        <v>15.64</v>
       </c>
     </row>
     <row r="21" spans="1:13">
       <c r="A21" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B21">
+        <v>688612</v>
       </c>
       <c r="C21" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="D21">
-        <v>48.1</v>
+        <v>49.42</v>
       </c>
       <c r="E21">
-        <v>46.43</v>
+        <v>48.4</v>
       </c>
       <c r="F21">
-        <v>49.29</v>
+        <v>50</v>
       </c>
       <c r="G21">
-        <v>45.13</v>
+        <v>47</v>
       </c>
       <c r="H21">
-        <v>29478</v>
+        <v>28334</v>
       </c>
       <c r="I21">
-        <v>137593047</v>
+        <v>137289870</v>
       </c>
       <c r="J21">
-        <v>8.6</v>
+        <v>6.05</v>
       </c>
       <c r="K21">
-        <v>-4.07</v>
+        <v>-2.38</v>
       </c>
       <c r="L21">
-        <v>-1.97</v>
+        <v>-1.18</v>
       </c>
       <c r="M21">
-        <v>9.41</v>
+        <v>9.050000000000001</v>
       </c>
     </row>
     <row r="22" spans="1:13">
       <c r="A22" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B22">
+        <v>688612</v>
       </c>
       <c r="C22" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="D22">
-        <v>45.84</v>
+        <v>48.1</v>
       </c>
       <c r="E22">
-        <v>43.7</v>
+        <v>46.43</v>
       </c>
       <c r="F22">
-        <v>46.25</v>
+        <v>49.29</v>
       </c>
       <c r="G22">
-        <v>43.7</v>
+        <v>45.13</v>
       </c>
       <c r="H22">
-        <v>25375</v>
+        <v>29478</v>
       </c>
       <c r="I22">
-        <v>114073344</v>
+        <v>137593047</v>
       </c>
       <c r="J22">
-        <v>5.49</v>
+        <v>8.6</v>
       </c>
       <c r="K22">
-        <v>-5.88</v>
+        <v>-4.07</v>
       </c>
       <c r="L22">
-        <v>-2.73</v>
+        <v>-1.97</v>
       </c>
       <c r="M22">
-        <v>8.1</v>
+        <v>9.41</v>
       </c>
     </row>
     <row r="23" spans="1:13">
       <c r="A23" t="s">
-        <v>13</v>
-      </c>
-      <c r="B23" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>688612</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="D23">
-        <v>43.83</v>
+        <v>45.84</v>
       </c>
       <c r="E23">
-        <v>43.22</v>
+        <v>43.7</v>
       </c>
       <c r="F23">
-        <v>44.17</v>
+        <v>46.25</v>
       </c>
       <c r="G23">
-        <v>42.23</v>
+        <v>43.7</v>
       </c>
       <c r="H23">
-        <v>17171</v>
+        <v>25375</v>
       </c>
       <c r="I23">
-        <v>74051836</v>
+        <v>114073344</v>
       </c>
       <c r="J23">
-        <v>4.44</v>
+        <v>5.49</v>
       </c>
       <c r="K23">
-        <v>-1.1</v>
+        <v>-5.88</v>
       </c>
       <c r="L23">
-        <v>-0.48</v>
+        <v>-2.73</v>
       </c>
       <c r="M23">
-        <v>5.48</v>
+        <v>8.1</v>
       </c>
     </row>
     <row r="24" spans="1:13">
       <c r="A24" t="s">
-        <v>13</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>688612</v>
       </c>
       <c r="C24" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D24">
-        <v>42.99</v>
+        <v>43.83</v>
       </c>
       <c r="E24">
-        <v>41.38</v>
+        <v>43.22</v>
       </c>
       <c r="F24">
-        <v>42.99</v>
+        <v>44.17</v>
       </c>
       <c r="G24">
-        <v>40.8</v>
+        <v>42.23</v>
       </c>
       <c r="H24">
-        <v>22153</v>
+        <v>17171</v>
       </c>
       <c r="I24">
-        <v>92210466</v>
+        <v>74051836</v>
       </c>
       <c r="J24">
-        <v>5.07</v>
+        <v>4.44</v>
       </c>
       <c r="K24">
-        <v>-4.26</v>
+        <v>-1.1</v>
       </c>
       <c r="L24">
-        <v>-1.84</v>
+        <v>-0.48</v>
       </c>
       <c r="M24">
-        <v>7.07</v>
+        <v>5.48</v>
       </c>
     </row>
     <row r="25" spans="1:13">
       <c r="A25" t="s">
-        <v>13</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B25">
+        <v>688612</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>45</v>
       </c>
       <c r="D25">
-        <v>45</v>
+        <v>42.99</v>
       </c>
       <c r="E25">
-        <v>42.77</v>
+        <v>41.38</v>
       </c>
       <c r="F25">
-        <v>46.2</v>
+        <v>42.99</v>
       </c>
       <c r="G25">
-        <v>42.53</v>
+        <v>40.8</v>
       </c>
       <c r="H25">
-        <v>27445</v>
+        <v>22153</v>
       </c>
       <c r="I25">
-        <v>121638836</v>
+        <v>92210466</v>
       </c>
       <c r="J25">
-        <v>8.869999999999999</v>
+        <v>5.07</v>
       </c>
       <c r="K25">
-        <v>3.36</v>
+        <v>-4.26</v>
       </c>
       <c r="L25">
-        <v>1.39</v>
+        <v>-1.84</v>
       </c>
       <c r="M25">
-        <v>8.76</v>
+        <v>7.07</v>
       </c>
     </row>
     <row r="26" spans="1:13">
       <c r="A26" t="s">
-        <v>13</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B26">
+        <v>688612</v>
       </c>
       <c r="C26" t="s">
-        <v>39</v>
+        <v>46</v>
       </c>
       <c r="D26">
-        <v>42.68</v>
+        <v>45</v>
       </c>
       <c r="E26">
-        <v>46.53</v>
+        <v>42.77</v>
       </c>
       <c r="F26">
-        <v>46.53</v>
+        <v>46.2</v>
       </c>
       <c r="G26">
-        <v>42.45</v>
+        <v>42.53</v>
       </c>
       <c r="H26">
-        <v>26104</v>
+        <v>27445</v>
       </c>
       <c r="I26">
-        <v>117858054</v>
+        <v>121638836</v>
       </c>
       <c r="J26">
-        <v>9.539999999999999</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="K26">
-        <v>8.789999999999999</v>
+        <v>3.36</v>
       </c>
       <c r="L26">
-        <v>3.76</v>
+        <v>1.39</v>
       </c>
       <c r="M26">
-        <v>8.33</v>
+        <v>8.76</v>
       </c>
     </row>
     <row r="27" spans="1:13">
       <c r="A27" t="s">
-        <v>13</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B27">
+        <v>688612</v>
       </c>
       <c r="C27" t="s">
-        <v>40</v>
+        <v>47</v>
       </c>
       <c r="D27">
-        <v>47.01</v>
+        <v>42.68</v>
       </c>
       <c r="E27">
-        <v>49.24</v>
+        <v>46.53</v>
       </c>
       <c r="F27">
-        <v>49.88</v>
+        <v>46.53</v>
       </c>
       <c r="G27">
-        <v>46.53</v>
+        <v>42.45</v>
       </c>
       <c r="H27">
-        <v>37963</v>
+        <v>26104</v>
       </c>
       <c r="I27">
-        <v>184805292</v>
+        <v>117858054</v>
       </c>
       <c r="J27">
-        <v>7.2</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="K27">
-        <v>5.82</v>
+        <v>8.789999999999999</v>
       </c>
       <c r="L27">
-        <v>2.71</v>
+        <v>3.76</v>
       </c>
       <c r="M27">
-        <v>12.12</v>
+        <v>8.33</v>
       </c>
     </row>
     <row r="28" spans="1:13">
       <c r="A28" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B28">
+        <v>688612</v>
       </c>
       <c r="C28" t="s">
-        <v>41</v>
+        <v>48</v>
       </c>
       <c r="D28">
-        <v>48.6</v>
+        <v>47.01</v>
       </c>
       <c r="E28">
-        <v>48.69</v>
+        <v>49.24</v>
       </c>
       <c r="F28">
-        <v>50.96</v>
+        <v>49.88</v>
       </c>
       <c r="G28">
-        <v>48.28</v>
+        <v>46.53</v>
       </c>
       <c r="H28">
-        <v>22974</v>
+        <v>37963</v>
       </c>
       <c r="I28">
-        <v>113454351</v>
+        <v>184805292</v>
       </c>
       <c r="J28">
-        <v>5.44</v>
+        <v>7.2</v>
       </c>
       <c r="K28">
-        <v>-1.12</v>
+        <v>5.82</v>
       </c>
       <c r="L28">
-        <v>-0.55</v>
+        <v>2.71</v>
       </c>
       <c r="M28">
-        <v>7.34</v>
+        <v>12.12</v>
       </c>
     </row>
     <row r="29" spans="1:13">
       <c r="A29" t="s">
-        <v>13</v>
-      </c>
-      <c r="B29" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B29">
+        <v>688612</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>49</v>
       </c>
       <c r="D29">
-        <v>48.8</v>
+        <v>48.6</v>
       </c>
       <c r="E29">
-        <v>49</v>
+        <v>48.69</v>
       </c>
       <c r="F29">
-        <v>50.8</v>
+        <v>50.96</v>
       </c>
       <c r="G29">
-        <v>48.67</v>
+        <v>48.28</v>
       </c>
       <c r="H29">
-        <v>21980</v>
+        <v>22974</v>
       </c>
       <c r="I29">
-        <v>108872994</v>
+        <v>113454351</v>
       </c>
       <c r="J29">
-        <v>4.37</v>
+        <v>5.44</v>
       </c>
       <c r="K29">
-        <v>0.64</v>
+        <v>-1.12</v>
       </c>
       <c r="L29">
-        <v>0.31</v>
+        <v>-0.55</v>
       </c>
       <c r="M29">
-        <v>7.02</v>
+        <v>7.34</v>
       </c>
     </row>
     <row r="30" spans="1:13">
       <c r="A30" t="s">
-        <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B30">
+        <v>688612</v>
       </c>
       <c r="C30" t="s">
-        <v>43</v>
+        <v>50</v>
       </c>
       <c r="D30">
-        <v>48.61</v>
+        <v>48.8</v>
       </c>
       <c r="E30">
-        <v>48.83</v>
+        <v>49</v>
       </c>
       <c r="F30">
-        <v>49.28</v>
+        <v>50.8</v>
       </c>
       <c r="G30">
-        <v>47.27</v>
+        <v>48.67</v>
       </c>
       <c r="H30">
-        <v>18428</v>
+        <v>21980</v>
       </c>
       <c r="I30">
-        <v>88717522</v>
+        <v>108872994</v>
       </c>
       <c r="J30">
-        <v>4.1</v>
+        <v>4.37</v>
       </c>
       <c r="K30">
-        <v>-0.35</v>
+        <v>0.64</v>
       </c>
       <c r="L30">
-        <v>-0.17</v>
+        <v>0.31</v>
       </c>
       <c r="M30">
-        <v>5.88</v>
+        <v>7.02</v>
       </c>
     </row>
     <row r="31" spans="1:13">
       <c r="A31" t="s">
-        <v>13</v>
-      </c>
-      <c r="B31" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B31">
+        <v>688612</v>
       </c>
       <c r="C31" t="s">
-        <v>44</v>
+        <v>51</v>
       </c>
       <c r="D31">
-        <v>48.06</v>
+        <v>48.61</v>
       </c>
       <c r="E31">
-        <v>49.54</v>
+        <v>48.83</v>
       </c>
       <c r="F31">
-        <v>49.7</v>
+        <v>49.28</v>
       </c>
       <c r="G31">
-        <v>47.61</v>
+        <v>47.27</v>
       </c>
       <c r="H31">
-        <v>15006</v>
+        <v>18428</v>
       </c>
       <c r="I31">
-        <v>73486710</v>
+        <v>88717522</v>
       </c>
       <c r="J31">
-        <v>4.28</v>
+        <v>4.1</v>
       </c>
       <c r="K31">
-        <v>1.45</v>
+        <v>-0.35</v>
       </c>
       <c r="L31">
-        <v>0.71</v>
+        <v>-0.17</v>
       </c>
       <c r="M31">
-        <v>4.79</v>
+        <v>5.88</v>
       </c>
     </row>
     <row r="32" spans="1:13">
       <c r="A32" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B32">
+        <v>688612</v>
       </c>
       <c r="C32" t="s">
-        <v>45</v>
+        <v>52</v>
       </c>
       <c r="D32">
-        <v>48.37</v>
+        <v>48.06</v>
       </c>
       <c r="E32">
-        <v>49.67</v>
+        <v>49.54</v>
       </c>
       <c r="F32">
-        <v>50.08</v>
+        <v>49.7</v>
       </c>
       <c r="G32">
-        <v>48.31</v>
+        <v>47.61</v>
       </c>
       <c r="H32">
-        <v>11527</v>
+        <v>15006</v>
       </c>
       <c r="I32">
-        <v>57093628</v>
+        <v>73486710</v>
       </c>
       <c r="J32">
-        <v>3.57</v>
+        <v>4.28</v>
       </c>
       <c r="K32">
-        <v>0.26</v>
+        <v>1.45</v>
       </c>
       <c r="L32">
-        <v>0.13</v>
+        <v>0.71</v>
       </c>
       <c r="M32">
-        <v>3.68</v>
+        <v>4.79</v>
       </c>
     </row>
     <row r="33" spans="1:13">
       <c r="A33" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B33">
+        <v>688612</v>
       </c>
       <c r="C33" t="s">
-        <v>46</v>
+        <v>53</v>
       </c>
       <c r="D33">
-        <v>49.16</v>
+        <v>48.37</v>
       </c>
       <c r="E33">
-        <v>48.3</v>
+        <v>49.67</v>
       </c>
       <c r="F33">
-        <v>49.9</v>
+        <v>50.08</v>
       </c>
       <c r="G33">
-        <v>47.66</v>
+        <v>48.31</v>
       </c>
       <c r="H33">
-        <v>9253</v>
+        <v>11527</v>
       </c>
       <c r="I33">
-        <v>44858022</v>
+        <v>57093628</v>
       </c>
       <c r="J33">
-        <v>4.51</v>
+        <v>3.57</v>
       </c>
       <c r="K33">
-        <v>-2.76</v>
+        <v>0.26</v>
       </c>
       <c r="L33">
-        <v>-1.37</v>
+        <v>0.13</v>
       </c>
       <c r="M33">
-        <v>2.95</v>
+        <v>3.68</v>
       </c>
     </row>
     <row r="34" spans="1:13">
       <c r="A34" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>688612</v>
       </c>
       <c r="C34" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D34">
-        <v>47.7</v>
+        <v>49.16</v>
       </c>
       <c r="E34">
-        <v>47.99</v>
+        <v>48.3</v>
       </c>
       <c r="F34">
-        <v>49</v>
+        <v>49.9</v>
       </c>
       <c r="G34">
-        <v>47</v>
+        <v>47.66</v>
       </c>
       <c r="H34">
-        <v>7881</v>
+        <v>9253</v>
       </c>
       <c r="I34">
-        <v>37926153</v>
+        <v>44858022</v>
       </c>
       <c r="J34">
-        <v>4.14</v>
+        <v>4.51</v>
       </c>
       <c r="K34">
-        <v>-0.64</v>
+        <v>-2.76</v>
       </c>
       <c r="L34">
-        <v>-0.31</v>
+        <v>-1.37</v>
       </c>
       <c r="M34">
-        <v>2.52</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="35" spans="1:13">
       <c r="A35" t="s">
-        <v>13</v>
-      </c>
-      <c r="B35" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B35">
+        <v>688612</v>
       </c>
       <c r="C35" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="D35">
-        <v>47.8</v>
+        <v>47.7</v>
       </c>
       <c r="E35">
-        <v>48.39</v>
+        <v>47.99</v>
       </c>
       <c r="F35">
-        <v>49.39</v>
+        <v>49</v>
       </c>
       <c r="G35">
-        <v>47.53</v>
+        <v>47</v>
       </c>
       <c r="H35">
-        <v>10971</v>
+        <v>7881</v>
       </c>
       <c r="I35">
-        <v>53266160</v>
+        <v>37926153</v>
       </c>
       <c r="J35">
-        <v>3.88</v>
+        <v>4.14</v>
       </c>
       <c r="K35">
-        <v>0.83</v>
+        <v>-0.64</v>
       </c>
       <c r="L35">
-        <v>0.4</v>
+        <v>-0.31</v>
       </c>
       <c r="M35">
-        <v>3.5</v>
+        <v>2.52</v>
       </c>
     </row>
     <row r="36" spans="1:13">
       <c r="A36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B36">
+        <v>688612</v>
       </c>
       <c r="C36" t="s">
-        <v>49</v>
+        <v>56</v>
       </c>
       <c r="D36">
-        <v>48.8</v>
+        <v>47.8</v>
       </c>
       <c r="E36">
-        <v>48.6</v>
+        <v>48.39</v>
       </c>
       <c r="F36">
         <v>49.39</v>
       </c>
       <c r="G36">
-        <v>48.12</v>
+        <v>47.53</v>
       </c>
       <c r="H36">
-        <v>8128</v>
+        <v>10971</v>
       </c>
       <c r="I36">
-        <v>39596278</v>
+        <v>53266160</v>
       </c>
       <c r="J36">
-        <v>2.62</v>
+        <v>3.88</v>
       </c>
       <c r="K36">
-        <v>0.43</v>
+        <v>0.83</v>
       </c>
       <c r="L36">
-        <v>0.21</v>
+        <v>0.4</v>
       </c>
       <c r="M36">
-        <v>2.6</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="37" spans="1:13">
       <c r="A37" t="s">
-        <v>13</v>
-      </c>
-      <c r="B37" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B37">
+        <v>688612</v>
       </c>
       <c r="C37" t="s">
-        <v>50</v>
+        <v>57</v>
       </c>
       <c r="D37">
-        <v>48.04</v>
+        <v>48.8</v>
       </c>
       <c r="E37">
-        <v>46.75</v>
+        <v>48.6</v>
       </c>
       <c r="F37">
-        <v>48.23</v>
+        <v>49.39</v>
       </c>
       <c r="G37">
-        <v>46.37</v>
+        <v>48.12</v>
       </c>
       <c r="H37">
-        <v>10542</v>
+        <v>8128</v>
       </c>
       <c r="I37">
-        <v>49515014</v>
+        <v>39596278</v>
       </c>
       <c r="J37">
-        <v>3.83</v>
+        <v>2.62</v>
       </c>
       <c r="K37">
-        <v>-3.81</v>
+        <v>0.43</v>
       </c>
       <c r="L37">
-        <v>-1.85</v>
+        <v>0.21</v>
       </c>
       <c r="M37">
-        <v>3.37</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="38" spans="1:13">
       <c r="A38" t="s">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B38">
+        <v>688612</v>
       </c>
       <c r="C38" t="s">
-        <v>51</v>
+        <v>58</v>
       </c>
       <c r="D38">
-        <v>46.28</v>
+        <v>48.04</v>
       </c>
       <c r="E38">
-        <v>44.8</v>
+        <v>46.75</v>
       </c>
       <c r="F38">
-        <v>46.75</v>
+        <v>48.23</v>
       </c>
       <c r="G38">
-        <v>44.38</v>
+        <v>46.37</v>
       </c>
       <c r="H38">
-        <v>14767</v>
+        <v>10542</v>
       </c>
       <c r="I38">
-        <v>66890438</v>
+        <v>49515014</v>
       </c>
       <c r="J38">
-        <v>5.07</v>
+        <v>3.83</v>
       </c>
       <c r="K38">
-        <v>-4.17</v>
+        <v>-3.81</v>
       </c>
       <c r="L38">
-        <v>-1.95</v>
+        <v>-1.85</v>
       </c>
       <c r="M38">
-        <v>4.72</v>
+        <v>3.37</v>
       </c>
     </row>
     <row r="39" spans="1:13">
       <c r="A39" t="s">
-        <v>13</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B39">
+        <v>688612</v>
       </c>
       <c r="C39" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="D39">
-        <v>45</v>
+        <v>46.28</v>
       </c>
       <c r="E39">
-        <v>43.79</v>
+        <v>44.8</v>
       </c>
       <c r="F39">
-        <v>45.6</v>
+        <v>46.75</v>
       </c>
       <c r="G39">
-        <v>43.59</v>
+        <v>44.38</v>
       </c>
       <c r="H39">
-        <v>8171</v>
+        <v>14767</v>
       </c>
       <c r="I39">
-        <v>35944451</v>
+        <v>66890438</v>
       </c>
       <c r="J39">
-        <v>4.49</v>
+        <v>5.07</v>
       </c>
       <c r="K39">
-        <v>-2.25</v>
+        <v>-4.17</v>
       </c>
       <c r="L39">
-        <v>-1.01</v>
+        <v>-1.95</v>
       </c>
       <c r="M39">
-        <v>2.61</v>
+        <v>4.72</v>
       </c>
     </row>
     <row r="40" spans="1:13">
       <c r="A40" t="s">
-        <v>13</v>
-      </c>
-      <c r="B40" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B40">
+        <v>688612</v>
       </c>
       <c r="C40" t="s">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D40">
-        <v>43.6</v>
+        <v>45</v>
       </c>
       <c r="E40">
-        <v>44.66</v>
+        <v>43.79</v>
       </c>
       <c r="F40">
-        <v>45.96</v>
+        <v>45.6</v>
       </c>
       <c r="G40">
-        <v>43.5</v>
+        <v>43.59</v>
       </c>
       <c r="H40">
-        <v>9510</v>
+        <v>8171</v>
       </c>
       <c r="I40">
-        <v>42777161</v>
+        <v>35944451</v>
       </c>
       <c r="J40">
-        <v>5.62</v>
+        <v>4.49</v>
       </c>
       <c r="K40">
-        <v>1.99</v>
+        <v>-2.25</v>
       </c>
       <c r="L40">
-        <v>0.87</v>
+        <v>-1.01</v>
       </c>
       <c r="M40">
-        <v>3.04</v>
+        <v>2.61</v>
       </c>
     </row>
     <row r="41" spans="1:13">
       <c r="A41" t="s">
-        <v>13</v>
-      </c>
-      <c r="B41" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B41">
+        <v>688612</v>
       </c>
       <c r="C41" t="s">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="D41">
-        <v>45</v>
+        <v>43.6</v>
       </c>
       <c r="E41">
-        <v>44.09</v>
+        <v>44.66</v>
       </c>
       <c r="F41">
-        <v>45</v>
+        <v>45.96</v>
       </c>
       <c r="G41">
-        <v>43.56</v>
+        <v>43.5</v>
       </c>
       <c r="H41">
-        <v>7666</v>
+        <v>9510</v>
       </c>
       <c r="I41">
-        <v>33668366</v>
+        <v>42777161</v>
       </c>
       <c r="J41">
-        <v>3.22</v>
+        <v>5.62</v>
       </c>
       <c r="K41">
-        <v>-1.28</v>
+        <v>1.99</v>
       </c>
       <c r="L41">
-        <v>-0.57</v>
+        <v>0.87</v>
       </c>
       <c r="M41">
-        <v>2.45</v>
+        <v>3.04</v>
       </c>
     </row>
     <row r="42" spans="1:13">
       <c r="A42" t="s">
-        <v>13</v>
-      </c>
-      <c r="B42" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B42">
+        <v>688612</v>
       </c>
       <c r="C42" t="s">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="D42">
-        <v>43.6</v>
+        <v>45</v>
       </c>
       <c r="E42">
-        <v>43.11</v>
+        <v>44.09</v>
       </c>
       <c r="F42">
-        <v>44.1</v>
+        <v>45</v>
       </c>
       <c r="G42">
-        <v>42.9</v>
+        <v>43.56</v>
       </c>
       <c r="H42">
-        <v>9874</v>
+        <v>7666</v>
       </c>
       <c r="I42">
-        <v>42965598</v>
+        <v>33668366</v>
       </c>
       <c r="J42">
-        <v>2.72</v>
+        <v>3.22</v>
       </c>
       <c r="K42">
-        <v>-2.22</v>
+        <v>-1.28</v>
       </c>
       <c r="L42">
-        <v>-0.98</v>
+        <v>-0.57</v>
       </c>
       <c r="M42">
-        <v>3.15</v>
+        <v>2.45</v>
       </c>
     </row>
     <row r="43" spans="1:13">
       <c r="A43" t="s">
-        <v>13</v>
-      </c>
-      <c r="B43" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B43">
+        <v>688612</v>
       </c>
       <c r="C43" t="s">
-        <v>56</v>
+        <v>63</v>
       </c>
       <c r="D43">
-        <v>42.89</v>
+        <v>43.6</v>
       </c>
       <c r="E43">
-        <v>42.85</v>
+        <v>43.11</v>
       </c>
       <c r="F43">
-        <v>43.35</v>
+        <v>44.1</v>
       </c>
       <c r="G43">
-        <v>42.62</v>
+        <v>42.9</v>
       </c>
       <c r="H43">
-        <v>5790</v>
+        <v>9874</v>
       </c>
       <c r="I43">
-        <v>24886980</v>
+        <v>42965598</v>
       </c>
       <c r="J43">
-        <v>1.69</v>
+        <v>2.72</v>
       </c>
       <c r="K43">
-        <v>-0.6</v>
+        <v>-2.22</v>
       </c>
       <c r="L43">
-        <v>-0.26</v>
+        <v>-0.98</v>
       </c>
       <c r="M43">
-        <v>1.85</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="44" spans="1:13">
       <c r="A44" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B44">
+        <v>688612</v>
       </c>
       <c r="C44" t="s">
-        <v>57</v>
+        <v>64</v>
       </c>
       <c r="D44">
-        <v>42.64</v>
+        <v>42.89</v>
       </c>
       <c r="E44">
-        <v>43.64</v>
+        <v>42.85</v>
       </c>
       <c r="F44">
-        <v>44.07</v>
+        <v>43.35</v>
       </c>
       <c r="G44">
-        <v>41.88</v>
+        <v>42.62</v>
       </c>
       <c r="H44">
-        <v>9235</v>
+        <v>5790</v>
       </c>
       <c r="I44">
-        <v>39902011</v>
+        <v>24886980</v>
       </c>
       <c r="J44">
-        <v>5.11</v>
+        <v>1.69</v>
       </c>
       <c r="K44">
-        <v>1.84</v>
+        <v>-0.6</v>
       </c>
       <c r="L44">
-        <v>0.79</v>
+        <v>-0.26</v>
       </c>
       <c r="M44">
-        <v>2.95</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="45" spans="1:13">
       <c r="A45" t="s">
-        <v>13</v>
-      </c>
-      <c r="B45" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B45">
+        <v>688612</v>
       </c>
       <c r="C45" t="s">
-        <v>58</v>
+        <v>65</v>
       </c>
       <c r="D45">
-        <v>43.7</v>
+        <v>42.64</v>
       </c>
       <c r="E45">
-        <v>44.08</v>
+        <v>43.64</v>
       </c>
       <c r="F45">
-        <v>44.5</v>
+        <v>44.07</v>
       </c>
       <c r="G45">
-        <v>43.1</v>
+        <v>41.88</v>
       </c>
       <c r="H45">
-        <v>10520</v>
+        <v>9235</v>
       </c>
       <c r="I45">
-        <v>46130884</v>
+        <v>39902011</v>
       </c>
       <c r="J45">
-        <v>3.21</v>
+        <v>5.11</v>
       </c>
       <c r="K45">
-        <v>1.01</v>
+        <v>1.84</v>
       </c>
       <c r="L45">
-        <v>0.44</v>
+        <v>0.79</v>
       </c>
       <c r="M45">
-        <v>3.36</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="46" spans="1:13">
       <c r="A46" t="s">
-        <v>13</v>
-      </c>
-      <c r="B46" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B46">
+        <v>688612</v>
       </c>
       <c r="C46" t="s">
-        <v>59</v>
+        <v>66</v>
       </c>
       <c r="D46">
-        <v>43.92</v>
+        <v>43.7</v>
       </c>
       <c r="E46">
-        <v>43.63</v>
+        <v>44.08</v>
       </c>
       <c r="F46">
-        <v>44.66</v>
+        <v>44.5</v>
       </c>
       <c r="G46">
-        <v>43.5</v>
+        <v>43.1</v>
       </c>
       <c r="H46">
-        <v>6820</v>
+        <v>10520</v>
       </c>
       <c r="I46">
-        <v>29950520</v>
+        <v>46130884</v>
       </c>
       <c r="J46">
-        <v>2.63</v>
+        <v>3.21</v>
       </c>
       <c r="K46">
-        <v>-1.02</v>
+        <v>1.01</v>
       </c>
       <c r="L46">
-        <v>-0.45</v>
+        <v>0.44</v>
       </c>
       <c r="M46">
-        <v>2.18</v>
+        <v>3.36</v>
       </c>
     </row>
     <row r="47" spans="1:13">
       <c r="A47" t="s">
-        <v>13</v>
-      </c>
-      <c r="B47" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B47">
+        <v>688612</v>
       </c>
       <c r="C47" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="D47">
-        <v>43.28</v>
+        <v>43.92</v>
       </c>
       <c r="E47">
-        <v>43.32</v>
+        <v>43.63</v>
       </c>
       <c r="F47">
-        <v>44.35</v>
+        <v>44.66</v>
       </c>
       <c r="G47">
-        <v>43.2</v>
+        <v>43.5</v>
       </c>
       <c r="H47">
-        <v>5362</v>
+        <v>6820</v>
       </c>
       <c r="I47">
-        <v>23426185</v>
+        <v>29950520</v>
       </c>
       <c r="J47">
-        <v>2.64</v>
+        <v>2.63</v>
       </c>
       <c r="K47">
-        <v>-0.71</v>
+        <v>-1.02</v>
       </c>
       <c r="L47">
-        <v>-0.31</v>
+        <v>-0.45</v>
       </c>
       <c r="M47">
-        <v>1.71</v>
+        <v>2.18</v>
       </c>
     </row>
     <row r="48" spans="1:13">
       <c r="A48" t="s">
-        <v>13</v>
-      </c>
-      <c r="B48" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B48">
+        <v>688612</v>
       </c>
       <c r="C48" t="s">
-        <v>61</v>
+        <v>68</v>
       </c>
       <c r="D48">
-        <v>43.41</v>
+        <v>43.28</v>
       </c>
       <c r="E48">
-        <v>42.98</v>
+        <v>43.32</v>
       </c>
       <c r="F48">
-        <v>44.18</v>
+        <v>44.35</v>
       </c>
       <c r="G48">
-        <v>42.88</v>
+        <v>43.2</v>
       </c>
       <c r="H48">
-        <v>6981</v>
+        <v>5362</v>
       </c>
       <c r="I48">
-        <v>30304414</v>
+        <v>23426185</v>
       </c>
       <c r="J48">
-        <v>3</v>
+        <v>2.64</v>
       </c>
       <c r="K48">
-        <v>-0.78</v>
+        <v>-0.71</v>
       </c>
       <c r="L48">
-        <v>-0.34</v>
+        <v>-0.31</v>
       </c>
       <c r="M48">
-        <v>2.23</v>
+        <v>1.71</v>
       </c>
     </row>
     <row r="49" spans="1:13">
       <c r="A49" t="s">
-        <v>13</v>
-      </c>
-      <c r="B49" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B49">
+        <v>688612</v>
       </c>
       <c r="C49" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="D49">
-        <v>46</v>
+        <v>43.41</v>
       </c>
       <c r="E49">
-        <v>45.81</v>
+        <v>42.98</v>
       </c>
       <c r="F49">
-        <v>47.27</v>
+        <v>44.18</v>
       </c>
       <c r="G49">
-        <v>45</v>
+        <v>42.88</v>
       </c>
       <c r="H49">
-        <v>30777</v>
+        <v>6981</v>
       </c>
       <c r="I49">
-        <v>142118176</v>
+        <v>30304414</v>
       </c>
       <c r="J49">
-        <v>5.28</v>
+        <v>3</v>
       </c>
       <c r="K49">
-        <v>6.58</v>
+        <v>-0.78</v>
       </c>
       <c r="L49">
-        <v>2.83</v>
+        <v>-0.34</v>
       </c>
       <c r="M49">
-        <v>9.83</v>
+        <v>2.23</v>
       </c>
     </row>
     <row r="50" spans="1:13">
       <c r="A50" t="s">
-        <v>13</v>
-      </c>
-      <c r="B50" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B50">
+        <v>688612</v>
       </c>
       <c r="C50" t="s">
-        <v>63</v>
+        <v>70</v>
       </c>
       <c r="D50">
-        <v>46.8</v>
+        <v>46</v>
       </c>
       <c r="E50">
-        <v>44.57</v>
+        <v>45.81</v>
       </c>
       <c r="F50">
-        <v>47</v>
+        <v>47.27</v>
       </c>
       <c r="G50">
-        <v>43.79</v>
+        <v>45</v>
       </c>
       <c r="H50">
-        <v>22519</v>
+        <v>30777</v>
       </c>
       <c r="I50">
-        <v>100918825</v>
+        <v>142118176</v>
       </c>
       <c r="J50">
-        <v>7.01</v>
+        <v>5.28</v>
       </c>
       <c r="K50">
-        <v>-2.71</v>
+        <v>6.58</v>
       </c>
       <c r="L50">
-        <v>-1.24</v>
+        <v>2.83</v>
       </c>
       <c r="M50">
-        <v>7.19</v>
+        <v>9.83</v>
       </c>
     </row>
     <row r="51" spans="1:13">
       <c r="A51" t="s">
-        <v>13</v>
-      </c>
-      <c r="B51" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B51">
+        <v>688612</v>
       </c>
       <c r="C51" t="s">
-        <v>64</v>
+        <v>71</v>
       </c>
       <c r="D51">
-        <v>44.76</v>
+        <v>46.8</v>
       </c>
       <c r="E51">
-        <v>44.54</v>
+        <v>44.57</v>
       </c>
       <c r="F51">
-        <v>45.4</v>
+        <v>47</v>
       </c>
       <c r="G51">
-        <v>43.95</v>
+        <v>43.79</v>
       </c>
       <c r="H51">
-        <v>12252</v>
+        <v>22519</v>
       </c>
       <c r="I51">
-        <v>54618940</v>
+        <v>100918825</v>
       </c>
       <c r="J51">
-        <v>3.25</v>
+        <v>7.01</v>
       </c>
       <c r="K51">
-        <v>-0.07000000000000001</v>
+        <v>-2.71</v>
       </c>
       <c r="L51">
-        <v>-0.03</v>
+        <v>-1.24</v>
       </c>
       <c r="M51">
-        <v>3.91</v>
+        <v>7.19</v>
       </c>
     </row>
     <row r="52" spans="1:13">
       <c r="A52" t="s">
-        <v>13</v>
-      </c>
-      <c r="B52" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B52">
+        <v>688612</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>72</v>
       </c>
       <c r="D52">
-        <v>44.56</v>
+        <v>44.76</v>
       </c>
       <c r="E52">
-        <v>44.36</v>
+        <v>44.54</v>
       </c>
       <c r="F52">
-        <v>44.9</v>
+        <v>45.4</v>
       </c>
       <c r="G52">
-        <v>43.52</v>
+        <v>43.95</v>
       </c>
       <c r="H52">
-        <v>10988</v>
+        <v>12252</v>
       </c>
       <c r="I52">
-        <v>48646311</v>
+        <v>54618940</v>
       </c>
       <c r="J52">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="K52">
-        <v>-0.4</v>
+        <v>-0.07000000000000001</v>
       </c>
       <c r="L52">
-        <v>-0.18</v>
+        <v>-0.03</v>
       </c>
       <c r="M52">
-        <v>3.51</v>
+        <v>3.91</v>
       </c>
     </row>
     <row r="53" spans="1:13">
       <c r="A53" t="s">
-        <v>13</v>
-      </c>
-      <c r="B53" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B53">
+        <v>688612</v>
       </c>
       <c r="C53" t="s">
-        <v>66</v>
+        <v>73</v>
       </c>
       <c r="D53">
-        <v>44.05</v>
+        <v>44.56</v>
       </c>
       <c r="E53">
-        <v>44.45</v>
+        <v>44.36</v>
       </c>
       <c r="F53">
-        <v>44.68</v>
+        <v>44.9</v>
       </c>
       <c r="G53">
-        <v>43.51</v>
+        <v>43.52</v>
       </c>
       <c r="H53">
-        <v>10220</v>
+        <v>10988</v>
       </c>
       <c r="I53">
-        <v>45028459</v>
+        <v>48646311</v>
       </c>
       <c r="J53">
-        <v>2.64</v>
+        <v>3.1</v>
       </c>
       <c r="K53">
-        <v>0.2</v>
+        <v>-0.4</v>
       </c>
       <c r="L53">
-        <v>0.09</v>
+        <v>-0.18</v>
       </c>
       <c r="M53">
-        <v>3.26</v>
+        <v>3.51</v>
       </c>
     </row>
     <row r="54" spans="1:13">
       <c r="A54" t="s">
-        <v>13</v>
-      </c>
-      <c r="B54" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B54">
+        <v>688612</v>
       </c>
       <c r="C54" t="s">
-        <v>67</v>
+        <v>74</v>
       </c>
       <c r="D54">
-        <v>44.74</v>
+        <v>44.05</v>
       </c>
       <c r="E54">
-        <v>45.14</v>
+        <v>44.45</v>
       </c>
       <c r="F54">
-        <v>46.15</v>
+        <v>44.68</v>
       </c>
       <c r="G54">
-        <v>44.13</v>
+        <v>43.51</v>
       </c>
       <c r="H54">
-        <v>14477</v>
+        <v>10220</v>
       </c>
       <c r="I54">
-        <v>65397378</v>
+        <v>45028459</v>
       </c>
       <c r="J54">
-        <v>4.54</v>
+        <v>2.64</v>
       </c>
       <c r="K54">
-        <v>1.55</v>
+        <v>0.2</v>
       </c>
       <c r="L54">
-        <v>0.6899999999999999</v>
+        <v>0.09</v>
       </c>
       <c r="M54">
-        <v>4.62</v>
+        <v>3.26</v>
       </c>
     </row>
     <row r="55" spans="1:13">
       <c r="A55" t="s">
-        <v>13</v>
-      </c>
-      <c r="B55" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B55">
+        <v>688612</v>
       </c>
       <c r="C55" t="s">
-        <v>68</v>
+        <v>75</v>
       </c>
       <c r="D55">
-        <v>45</v>
+        <v>44.74</v>
       </c>
       <c r="E55">
-        <v>42.5</v>
+        <v>45.14</v>
       </c>
       <c r="F55">
-        <v>45.4</v>
+        <v>46.15</v>
       </c>
       <c r="G55">
-        <v>42</v>
+        <v>44.13</v>
       </c>
       <c r="H55">
-        <v>17373</v>
+        <v>14477</v>
       </c>
       <c r="I55">
-        <v>74815900</v>
+        <v>65397378</v>
       </c>
       <c r="J55">
-        <v>7.53</v>
+        <v>4.54</v>
       </c>
       <c r="K55">
-        <v>-5.85</v>
+        <v>1.55</v>
       </c>
       <c r="L55">
-        <v>-2.64</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="M55">
-        <v>5.55</v>
+        <v>4.62</v>
       </c>
     </row>
     <row r="56" spans="1:13">
       <c r="A56" t="s">
-        <v>13</v>
-      </c>
-      <c r="B56" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B56">
+        <v>688612</v>
       </c>
       <c r="C56" t="s">
-        <v>69</v>
+        <v>76</v>
       </c>
       <c r="D56">
+        <v>45</v>
+      </c>
+      <c r="E56">
         <v>42.5</v>
       </c>
-      <c r="E56">
-        <v>42.08</v>
-      </c>
       <c r="F56">
-        <v>42.5</v>
+        <v>45.4</v>
       </c>
       <c r="G56">
-        <v>41.3</v>
+        <v>42</v>
       </c>
       <c r="H56">
-        <v>9275</v>
+        <v>17373</v>
       </c>
       <c r="I56">
-        <v>38824971</v>
+        <v>74815900</v>
       </c>
       <c r="J56">
-        <v>2.82</v>
+        <v>7.53</v>
       </c>
       <c r="K56">
-        <v>-0.99</v>
+        <v>-5.85</v>
       </c>
       <c r="L56">
-        <v>-0.42</v>
+        <v>-2.64</v>
       </c>
       <c r="M56">
-        <v>2.96</v>
+        <v>5.55</v>
       </c>
     </row>
     <row r="57" spans="1:13">
       <c r="A57" t="s">
-        <v>13</v>
-      </c>
-      <c r="B57" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B57">
+        <v>688612</v>
       </c>
       <c r="C57" t="s">
-        <v>70</v>
+        <v>77</v>
       </c>
       <c r="D57">
-        <v>41.75</v>
+        <v>42.5</v>
       </c>
       <c r="E57">
-        <v>41.8</v>
+        <v>42.08</v>
       </c>
       <c r="F57">
-        <v>42.91</v>
+        <v>42.5</v>
       </c>
       <c r="G57">
-        <v>41.59</v>
+        <v>41.3</v>
       </c>
       <c r="H57">
-        <v>5925</v>
+        <v>9275</v>
       </c>
       <c r="I57">
-        <v>24955472</v>
+        <v>38824971</v>
       </c>
       <c r="J57">
-        <v>3.14</v>
+        <v>2.82</v>
       </c>
       <c r="K57">
-        <v>-0.67</v>
+        <v>-0.99</v>
       </c>
       <c r="L57">
-        <v>-0.28</v>
+        <v>-0.42</v>
       </c>
       <c r="M57">
-        <v>1.89</v>
+        <v>2.96</v>
       </c>
     </row>
     <row r="58" spans="1:13">
       <c r="A58" t="s">
-        <v>13</v>
-      </c>
-      <c r="B58" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B58">
+        <v>688612</v>
       </c>
       <c r="C58" t="s">
-        <v>71</v>
+        <v>78</v>
       </c>
       <c r="D58">
+        <v>41.75</v>
+      </c>
+      <c r="E58">
         <v>41.8</v>
       </c>
-      <c r="E58">
-        <v>39.93</v>
-      </c>
       <c r="F58">
-        <v>42.5</v>
+        <v>42.91</v>
       </c>
       <c r="G58">
-        <v>39.7</v>
+        <v>41.59</v>
       </c>
       <c r="H58">
-        <v>12129</v>
+        <v>5925</v>
       </c>
       <c r="I58">
-        <v>49626789</v>
+        <v>24955472</v>
       </c>
       <c r="J58">
-        <v>6.7</v>
+        <v>3.14</v>
       </c>
       <c r="K58">
-        <v>-4.47</v>
+        <v>-0.67</v>
       </c>
       <c r="L58">
-        <v>-1.87</v>
+        <v>-0.28</v>
       </c>
       <c r="M58">
-        <v>3.87</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="59" spans="1:13">
       <c r="A59" t="s">
-        <v>13</v>
-      </c>
-      <c r="B59" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B59">
+        <v>688612</v>
       </c>
       <c r="C59" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="D59">
-        <v>39.55</v>
+        <v>41.8</v>
       </c>
       <c r="E59">
-        <v>39.66</v>
+        <v>39.93</v>
       </c>
       <c r="F59">
-        <v>40.57</v>
+        <v>42.5</v>
       </c>
       <c r="G59">
-        <v>39</v>
+        <v>39.7</v>
       </c>
       <c r="H59">
-        <v>10176</v>
+        <v>12129</v>
       </c>
       <c r="I59">
-        <v>40661810</v>
+        <v>49626789</v>
       </c>
       <c r="J59">
-        <v>3.93</v>
+        <v>6.7</v>
       </c>
       <c r="K59">
-        <v>-0.68</v>
+        <v>-4.47</v>
       </c>
       <c r="L59">
-        <v>-0.27</v>
+        <v>-1.87</v>
       </c>
       <c r="M59">
-        <v>3.25</v>
+        <v>3.87</v>
       </c>
     </row>
     <row r="60" spans="1:13">
       <c r="A60" t="s">
-        <v>13</v>
-      </c>
-      <c r="B60" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B60">
+        <v>688612</v>
       </c>
       <c r="C60" t="s">
-        <v>73</v>
+        <v>80</v>
       </c>
       <c r="D60">
-        <v>39.42</v>
+        <v>39.55</v>
       </c>
       <c r="E60">
-        <v>40.33</v>
+        <v>39.66</v>
       </c>
       <c r="F60">
-        <v>40.74</v>
+        <v>40.57</v>
       </c>
       <c r="G60">
-        <v>39.31</v>
+        <v>39</v>
       </c>
       <c r="H60">
-        <v>6549</v>
+        <v>10176</v>
       </c>
       <c r="I60">
-        <v>26245795</v>
+        <v>40661810</v>
       </c>
       <c r="J60">
-        <v>3.61</v>
+        <v>3.93</v>
       </c>
       <c r="K60">
-        <v>1.69</v>
+        <v>-0.68</v>
       </c>
       <c r="L60">
-        <v>0.67</v>
+        <v>-0.27</v>
       </c>
       <c r="M60">
-        <v>2.09</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="61" spans="1:13">
       <c r="A61" t="s">
-        <v>13</v>
-      </c>
-      <c r="B61" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B61">
+        <v>688612</v>
       </c>
       <c r="C61" t="s">
-        <v>74</v>
+        <v>81</v>
       </c>
       <c r="D61">
-        <v>40.73</v>
+        <v>39.42</v>
       </c>
       <c r="E61">
-        <v>39.85</v>
+        <v>40.33</v>
       </c>
       <c r="F61">
-        <v>40.73</v>
+        <v>40.74</v>
       </c>
       <c r="G61">
-        <v>39.69</v>
+        <v>39.31</v>
       </c>
       <c r="H61">
-        <v>9686</v>
+        <v>6549</v>
       </c>
       <c r="I61">
-        <v>38823033</v>
+        <v>26245795</v>
       </c>
       <c r="J61">
-        <v>2.58</v>
+        <v>3.61</v>
       </c>
       <c r="K61">
-        <v>-1.19</v>
+        <v>1.69</v>
       </c>
       <c r="L61">
-        <v>-0.48</v>
+        <v>0.67</v>
       </c>
       <c r="M61">
-        <v>3.09</v>
+        <v>2.09</v>
       </c>
     </row>
     <row r="62" spans="1:13">
       <c r="A62" t="s">
-        <v>13</v>
-      </c>
-      <c r="B62" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B62">
+        <v>688612</v>
       </c>
       <c r="C62" t="s">
-        <v>75</v>
+        <v>82</v>
       </c>
       <c r="D62">
-        <v>39.59</v>
+        <v>40.73</v>
       </c>
       <c r="E62">
-        <v>40.24</v>
+        <v>39.85</v>
       </c>
       <c r="F62">
-        <v>40.42</v>
+        <v>40.73</v>
       </c>
       <c r="G62">
-        <v>38.83</v>
+        <v>39.69</v>
       </c>
       <c r="H62">
-        <v>8630</v>
+        <v>9686</v>
       </c>
       <c r="I62">
-        <v>34266931</v>
+        <v>38823033</v>
       </c>
       <c r="J62">
-        <v>3.99</v>
+        <v>2.58</v>
       </c>
       <c r="K62">
-        <v>0.98</v>
+        <v>-1.19</v>
       </c>
       <c r="L62">
-        <v>0.39</v>
+        <v>-0.48</v>
       </c>
       <c r="M62">
-        <v>2.76</v>
+        <v>3.09</v>
       </c>
     </row>
     <row r="63" spans="1:13">
       <c r="A63" t="s">
-        <v>13</v>
-      </c>
-      <c r="B63" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B63">
+        <v>688612</v>
       </c>
       <c r="C63" t="s">
-        <v>76</v>
+        <v>83</v>
       </c>
       <c r="D63">
+        <v>39.59</v>
+      </c>
+      <c r="E63">
         <v>40.24</v>
       </c>
-      <c r="E63">
-        <v>40.9</v>
-      </c>
       <c r="F63">
-        <v>41.42</v>
+        <v>40.42</v>
       </c>
       <c r="G63">
-        <v>40</v>
+        <v>38.83</v>
       </c>
       <c r="H63">
-        <v>11167</v>
+        <v>8630</v>
       </c>
       <c r="I63">
-        <v>45464750</v>
+        <v>34266931</v>
       </c>
       <c r="J63">
-        <v>3.53</v>
+        <v>3.99</v>
       </c>
       <c r="K63">
-        <v>1.64</v>
+        <v>0.98</v>
       </c>
       <c r="L63">
-        <v>0.66</v>
+        <v>0.39</v>
       </c>
       <c r="M63">
-        <v>3.57</v>
+        <v>2.76</v>
       </c>
     </row>
     <row r="64" spans="1:13">
       <c r="A64" t="s">
-        <v>13</v>
-      </c>
-      <c r="B64" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B64">
+        <v>688612</v>
       </c>
       <c r="C64" t="s">
-        <v>77</v>
+        <v>84</v>
       </c>
       <c r="D64">
-        <v>39.34</v>
+        <v>40.24</v>
       </c>
       <c r="E64">
-        <v>38.16</v>
+        <v>40.9</v>
       </c>
       <c r="F64">
-        <v>40.27</v>
+        <v>41.42</v>
       </c>
       <c r="G64">
-        <v>37.39</v>
+        <v>40</v>
       </c>
       <c r="H64">
-        <v>38018</v>
+        <v>11167</v>
       </c>
       <c r="I64">
-        <v>146962726</v>
+        <v>45464750</v>
       </c>
       <c r="J64">
-        <v>7.04</v>
+        <v>3.53</v>
       </c>
       <c r="K64">
-        <v>-6.7</v>
+        <v>1.64</v>
       </c>
       <c r="L64">
-        <v>-2.74</v>
+        <v>0.66</v>
       </c>
       <c r="M64">
-        <v>12.14</v>
+        <v>3.57</v>
       </c>
     </row>
     <row r="65" spans="1:13">
       <c r="A65" t="s">
-        <v>13</v>
-      </c>
-      <c r="B65" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B65">
+        <v>688612</v>
       </c>
       <c r="C65" t="s">
-        <v>78</v>
+        <v>85</v>
       </c>
       <c r="D65">
-        <v>38.21</v>
+        <v>39.34</v>
       </c>
       <c r="E65">
-        <v>35.92</v>
+        <v>38.16</v>
       </c>
       <c r="F65">
-        <v>38.49</v>
+        <v>40.27</v>
       </c>
       <c r="G65">
-        <v>35.28</v>
+        <v>37.39</v>
       </c>
       <c r="H65">
-        <v>43374</v>
+        <v>38018</v>
       </c>
       <c r="I65">
-        <v>157239389</v>
+        <v>146962726</v>
       </c>
       <c r="J65">
-        <v>8.41</v>
+        <v>7.04</v>
       </c>
       <c r="K65">
-        <v>-5.87</v>
+        <v>-6.7</v>
       </c>
       <c r="L65">
-        <v>-2.24</v>
+        <v>-2.74</v>
       </c>
       <c r="M65">
-        <v>13.85</v>
+        <v>12.14</v>
       </c>
     </row>
     <row r="66" spans="1:13">
       <c r="A66" t="s">
-        <v>13</v>
-      </c>
-      <c r="B66" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B66">
+        <v>688612</v>
       </c>
       <c r="C66" t="s">
-        <v>79</v>
+        <v>86</v>
       </c>
       <c r="D66">
-        <v>35.9</v>
+        <v>38.21</v>
       </c>
       <c r="E66">
-        <v>36.05</v>
+        <v>35.92</v>
       </c>
       <c r="F66">
-        <v>36.47</v>
+        <v>38.49</v>
       </c>
       <c r="G66">
-        <v>35.5</v>
+        <v>35.28</v>
       </c>
       <c r="H66">
-        <v>19637</v>
+        <v>43374</v>
       </c>
       <c r="I66">
-        <v>70924671</v>
+        <v>157239389</v>
       </c>
       <c r="J66">
-        <v>2.7</v>
+        <v>8.41</v>
       </c>
       <c r="K66">
-        <v>0.36</v>
+        <v>-5.87</v>
       </c>
       <c r="L66">
-        <v>0.13</v>
+        <v>-2.24</v>
       </c>
       <c r="M66">
-        <v>6.27</v>
+        <v>13.85</v>
       </c>
     </row>
     <row r="67" spans="1:13">
       <c r="A67" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B67">
+        <v>688612</v>
       </c>
       <c r="C67" t="s">
-        <v>80</v>
+        <v>87</v>
       </c>
       <c r="D67">
-        <v>36.1</v>
+        <v>35.9</v>
       </c>
       <c r="E67">
-        <v>35.3</v>
+        <v>36.05</v>
       </c>
       <c r="F67">
-        <v>36.58</v>
+        <v>36.47</v>
       </c>
       <c r="G67">
-        <v>35.28</v>
+        <v>35.5</v>
       </c>
       <c r="H67">
-        <v>14334</v>
+        <v>19637</v>
       </c>
       <c r="I67">
-        <v>51353136</v>
+        <v>70924671</v>
       </c>
       <c r="J67">
-        <v>3.61</v>
+        <v>2.7</v>
       </c>
       <c r="K67">
-        <v>-2.08</v>
+        <v>0.36</v>
       </c>
       <c r="L67">
-        <v>-0.75</v>
+        <v>0.13</v>
       </c>
       <c r="M67">
-        <v>4.58</v>
+        <v>6.27</v>
       </c>
     </row>
     <row r="68" spans="1:13">
       <c r="A68" t="s">
-        <v>13</v>
-      </c>
-      <c r="B68" t="s">
-        <v>14</v>
+        <v>22</v>
+      </c>
+      <c r="B68">
+        <v>688612</v>
       </c>
       <c r="C68" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="D68">
+        <v>36.1</v>
+      </c>
+      <c r="E68">
+        <v>35.3</v>
+      </c>
+      <c r="F68">
+        <v>36.58</v>
+      </c>
+      <c r="G68">
+        <v>35.28</v>
+      </c>
+      <c r="H68">
+        <v>14334</v>
+      </c>
+      <c r="I68">
+        <v>51353136</v>
+      </c>
+      <c r="J68">
+        <v>3.61</v>
+      </c>
+      <c r="K68">
+        <v>-2.08</v>
+      </c>
+      <c r="L68">
+        <v>-0.75</v>
+      </c>
+      <c r="M68">
+        <v>4.58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13">
+      <c r="A69" t="s">
+        <v>22</v>
+      </c>
+      <c r="B69">
+        <v>688612</v>
+      </c>
+      <c r="C69" t="s">
+        <v>89</v>
+      </c>
+      <c r="D69">
         <v>35.4</v>
       </c>
-      <c r="E68">
+      <c r="E69">
         <v>36.56</v>
       </c>
-      <c r="F68">
+      <c r="F69">
         <v>36.85</v>
       </c>
-      <c r="G68">
+      <c r="G69">
         <v>35.38</v>
       </c>
-      <c r="H68">
+      <c r="H69">
         <v>17716</v>
       </c>
-      <c r="I68">
+      <c r="I69">
         <v>64258704</v>
       </c>
-      <c r="J68">
+      <c r="J69">
         <v>4.16</v>
       </c>
-      <c r="K68">
+      <c r="K69">
         <v>3.57</v>
       </c>
-      <c r="L68">
+      <c r="L69">
         <v>1.26</v>
       </c>
-      <c r="M68">
+      <c r="M69">
         <v>5.66</v>
       </c>
     </row>
